--- a/node_910_memo/document/메모장-테이블명세(2024-02-16).xlsx
+++ b/node_910_memo/document/메모장-테이블명세(2024-02-16).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505204\Documents\workspace\nodejs\node_910_memo\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\nodejs\node_910_meno\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A915D6-1118-4EC8-B509-A9FF57A86214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266BE45-7AA0-4577-A18B-814F96AAF8D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1020" windowWidth="19740" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메모장 테이블 명세" sheetId="2" r:id="rId1"/>
     <sheet name="회원정보 테이블 명세" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -80,227 +80,231 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서를 대여할 회원정보 테이블</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schema</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_MEMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_PASSWORD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 형식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookDB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_EMAIL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_memos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memoDB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장을 기록할 테이블</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>일련번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서를 대여할 회원정보 테이블</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(125)</t>
+    <t>작성자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지파일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(25)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(400)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(125)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_seq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_author</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_memo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모제목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_subject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schema</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개정일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_MEMBER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_PASSWORD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 형식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookDB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_EMAIL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(12)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_NAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memoDB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_memos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모장을 기록할 테이블</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지파일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(25)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(400)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(125)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_author</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_memo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(25)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_subject</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1194,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1851,32 +1855,32 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="34">
         <v>45338</v>
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
@@ -1884,12 +1888,12 @@
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
       <c r="I3" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="37"/>
       <c r="L3" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1897,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="32"/>
@@ -1905,7 +1909,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
       <c r="I4" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="38"/>
       <c r="K4" s="39"/>
@@ -1916,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -1942,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -1968,20 +1972,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1993,19 +1997,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2018,19 +2022,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2043,19 +2047,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2068,19 +2072,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2093,19 +2097,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2118,16 +2122,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2947,32 +2951,32 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="34">
         <v>43769</v>
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
@@ -2980,14 +2984,14 @@
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
       <c r="I3" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="36">
         <v>45310</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2995,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="32"/>
@@ -3003,7 +3007,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
       <c r="I4" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="38"/>
       <c r="K4" s="39"/>
@@ -3014,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3040,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -3066,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3089,13 +3093,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3110,13 +3114,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3131,13 +3135,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
